--- a/Artefatos/Dados Trabalho/Dados Transformados/Dados Climáticos/sao-paulo-temperature.xlsx
+++ b/Artefatos/Dados Trabalho/Dados Transformados/Dados Climáticos/sao-paulo-temperature.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raptor\Documents\Faculdade\9º Semestre\Sistemas de Apoio a Decisão\Trabalho\Dados Trabalho\Dados Transformados\Dados Climáticos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\trab-siad\Artefatos\Dados Trabalho\Dados Transformados\Dados Climáticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773048F2-C2A6-499F-996B-FA02A5E5B5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -386,11 +385,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1103,196 +1103,691 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B65">
+        <v>27</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B66">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B67">
+        <v>27</v>
+      </c>
+      <c r="C67">
+        <v>16</v>
+      </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B68">
+        <v>28</v>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B69">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>13</v>
+      </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B70">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B71">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B72">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B75">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="C78">
+        <v>11</v>
+      </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B79">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>13</v>
+      </c>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B80">
+        <v>21</v>
+      </c>
+      <c r="C80">
+        <v>16</v>
+      </c>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B81">
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>14</v>
+      </c>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B82">
+        <v>24</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B83">
+        <v>25</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B84">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B85">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>14</v>
+      </c>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B86">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>14</v>
+      </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B87">
+        <v>26</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
+      </c>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B88">
+        <v>26</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B89">
+        <v>21</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>11</v>
+      </c>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B91">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B92">
+        <v>20</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B93">
+        <v>22</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B94">
+        <v>21</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B95">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B96">
+        <v>25</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B97">
+        <v>25</v>
+      </c>
+      <c r="C97">
+        <v>9</v>
+      </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B98">
+        <v>26</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B99">
+        <v>19</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B100">
+        <v>22</v>
+      </c>
+      <c r="C100">
+        <v>15</v>
+      </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B101">
+        <v>22</v>
+      </c>
+      <c r="C101">
+        <v>16</v>
+      </c>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B102">
+        <v>23</v>
+      </c>
+      <c r="C102">
+        <v>17</v>
+      </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B103">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>17</v>
+      </c>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B104">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>17</v>
+      </c>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B105">
+        <v>27</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B106">
+        <v>26</v>
+      </c>
+      <c r="C106">
+        <v>16</v>
+      </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B107">
+        <v>28</v>
+      </c>
+      <c r="C107">
+        <v>18</v>
+      </c>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B108">
+        <v>28</v>
+      </c>
+      <c r="C108">
+        <v>17</v>
+      </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B109">
+        <v>28</v>
+      </c>
+      <c r="C109">
+        <v>16</v>
+      </c>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B110">
+        <v>28</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B111">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>14</v>
+      </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B112">
+        <v>22</v>
+      </c>
+      <c r="C112">
+        <v>14</v>
+      </c>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <v>14</v>
+      </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B114">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>14</v>
+      </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B115">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>12</v>
+      </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B116">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>14</v>
+      </c>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B117">
+        <v>28</v>
+      </c>
+      <c r="C117">
+        <v>13</v>
+      </c>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B118">
+        <v>27</v>
+      </c>
+      <c r="C118">
+        <v>14</v>
+      </c>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B119">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>14</v>
+      </c>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.2">
